--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx; "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx; "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx; "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx; "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -1490,23 +1490,23 @@
       </c>
       <c r="R15" s="2" t="inlineStr"/>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx; "A 31569-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -631,27 +631,27 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -720,23 +720,23 @@
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -805,23 +805,23 @@
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -890,23 +890,23 @@
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -1490,23 +1490,23 @@
       </c>
       <c r="R15" s="2" t="inlineStr"/>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png"; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx"; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx"; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx"; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "A 31569-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -1490,23 +1490,23 @@
       </c>
       <c r="R15" s="2" t="inlineStr"/>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -1490,23 +1490,23 @@
       </c>
       <c r="R15" s="2" t="inlineStr"/>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -650,9 +650,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "A 31572-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -735,9 +736,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx")</f>
-        <v/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "A 32292-2023")</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -820,9 +822,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx")</f>
-        <v/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "A 32299-2023")</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -905,9 +908,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx")</f>
-        <v/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "A 32785-2023")</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -1505,9 +1509,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx")</f>
-        <v/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "A 31569-2023")</t>
+        </is>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,33 +627,32 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx, "A 31572-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "A 31572-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx", "A 31572-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -666,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,29 +716,28 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx, "A 32292-2023"")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "A 32292-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx", "A 32292-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -752,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,29 +801,28 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx, "A 32299-2023"")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "A 32299-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx", "A 32299-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -838,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -889,29 +886,28 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx, "A 32785-2023"")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "A 32785-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx", "A 32785-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -924,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1100,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1162,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1219,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1276,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1333,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1390,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1447,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1494,25 +1490,24 @@
       </c>
       <c r="R15" s="2" t="inlineStr"/>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "A 31569-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx", "A 31569-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -1525,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1582,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1639,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1696,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1810,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1872,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1929,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1986,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2043,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2100,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2157,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2214,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx, "A 31572-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="T2">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx, "A 32292-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="T3">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx, "A 32299-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="T4">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx, "A 32785-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="T5">

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 31572-2023.xlsx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32292-2023.xlsx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32292-2023.png", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32299-2023.xlsx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32299-2023.png", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32785-2023.xlsx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32785-2023.png", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1490,23 +1490,23 @@
       </c>
       <c r="R15" s="2" t="inlineStr"/>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31569-2023.png", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 31572-2023.xlsx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 31572-2023 artfynd.xlsx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 31572-2023.png", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 31572-2023 karta.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31572-2023.png", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31572-2023 karta knärot.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023 fsc-klagomål.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023 fsc-klagomål mail.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31572-2023 tillsynsbegäran.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 31572-2023 tillsynsbegäran mail.docx", "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32292-2023.xlsx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32292-2023 artfynd.xlsx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32292-2023.png", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32292-2023 karta.png", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023 fsc-klagomål.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023 fsc-klagomål mail.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32292-2023 tillsynsbegäran.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32292-2023 tillsynsbegäran mail.docx", "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32299-2023.xlsx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32299-2023 artfynd.xlsx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32299-2023.png", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32299-2023 karta.png", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023 fsc-klagomål.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023 fsc-klagomål mail.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32299-2023 tillsynsbegäran.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32299-2023 tillsynsbegäran mail.docx", "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32785-2023.xlsx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32785-2023 artfynd.xlsx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32785-2023.png", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32785-2023 karta.png", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023 fsc-klagomål.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023 fsc-klagomål mail.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32785-2023 tillsynsbegäran.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32785-2023 tillsynsbegäran mail.docx", "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1490,23 +1490,23 @@
       </c>
       <c r="R15" s="2" t="inlineStr"/>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31569-2023.png", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31569-2023 karta knärot.png", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023 fsc-klagomål.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023 fsc-klagomål mail.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31569-2023 tillsynsbegäran.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 31569-2023 tillsynsbegäran mail.docx", "A 31569-2023")</f>
         <v/>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -639,11 +639,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023 fsc-klagomål.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023 FSC-klagomål.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023 fsc-klagomål mail.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023 FSC-klagomål mail.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -651,7 +651,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 31572-2023 tillsynsbegäran mail.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31572-2023 tillsynsbegäran mail.docx", "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -724,11 +724,11 @@
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023 fsc-klagomål.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023 FSC-klagomål.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023 fsc-klagomål mail.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023 FSC-klagomål mail.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
@@ -736,7 +736,7 @@
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32292-2023 tillsynsbegäran mail.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32292-2023 tillsynsbegäran mail.docx", "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -809,11 +809,11 @@
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023 fsc-klagomål.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023 FSC-klagomål.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023 fsc-klagomål mail.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023 FSC-klagomål mail.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
@@ -821,7 +821,7 @@
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32299-2023 tillsynsbegäran mail.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32299-2023 tillsynsbegäran mail.docx", "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -894,11 +894,11 @@
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023 fsc-klagomål.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023 FSC-klagomål.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023 fsc-klagomål mail.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023 FSC-klagomål mail.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
@@ -906,7 +906,7 @@
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32785-2023 tillsynsbegäran mail.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32785-2023 tillsynsbegäran mail.docx", "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -1494,11 +1494,11 @@
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023 fsc-klagomål.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023 FSC-klagomål.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023 fsc-klagomål mail.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023 FSC-klagomål mail.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X15">
@@ -1506,7 +1506,7 @@
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 31569-2023 tillsynsbegäran mail.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31569-2023 tillsynsbegäran mail.docx", "A 31569-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45119</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45120</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45120</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45131</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>45133</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45135</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
